--- a/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-20,7%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,27%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-9,97; 5,9</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 2,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-69,11; 112,6</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,34; 198,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,25%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,45; 5,1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 1,41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-42,98; 115,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,94; 394,12</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,84%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,62; 6,92</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,22</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 3,67</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 262,01</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; 1380,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,42; 4,35</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,17</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 2,01</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 125,02</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-78,35; 223,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 3,3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 1,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 71,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-21,09; 142,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-20,7%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-14,27%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.068489419308468</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6002017364967395</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.206998952886903</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.1689305514418502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 5,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 2,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-69,11; 112,6</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-74,34; 198,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.96517809766752</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-4.295764173560499</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6911360779647969</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.7572402981414474</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.897726877418277</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>2.433063566081361</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.125997087036024</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.838039078060904</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>25,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 5,1</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 1,41</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-42,98; 115,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-66,94; 394,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8501094245235528</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2814880441810412</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1333672198245521</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.2902090499426112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>49,14%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>186,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.453592711276174</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-0.9667775312481695</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4298032165840219</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.6481418853884232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 6,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 3,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 262,01</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-26,07; 1380,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.103851504208633</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>1.457764167180059</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.152251737333304</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>4.1534412536569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +755,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>37,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.566137728926297</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5910268848260511</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.748955503610755</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4913950510272218</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.808683528803255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 4,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 2,01</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 125,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-78,35; 223,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.617660957269206</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.03495868700672931</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2607826625469279</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.2797219980740569</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.916667468826707</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.055222877880473</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.662994324279457</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.620063258274229</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>13.21051612585529</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>27,7%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>32,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 3,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,68</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 1,46</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 71,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-21,09; 142,46</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.9971017689855088</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2102542557512926</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6406920638280421</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1523502709396145</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.431791615379608</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.992534757743534</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4378949393834151</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2447703726631515</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.2661831175356444</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.844694023029206</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.674007635707461</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.824683480107131</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7299335906991293</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>2.044111643552502</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
